--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1802375.618123975</v>
+        <v>1804699.289937843</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742179</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5499800.528709255</v>
+        <v>5499800.528709254</v>
       </c>
     </row>
     <row r="11">
@@ -665,58 +667,58 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>47.13383555196375</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>9.891109467671336</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="G2" t="n">
+      <c r="U2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="V2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -786,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>53.51252900994975</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -838,46 +840,46 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>1.170977004479174</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22.26949182588285</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>26.16190956546853</v>
-      </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
-        <v>200.3360962888296</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,22 +940,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1026,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>81.96229465628247</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1075,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>22.0339917726842</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,31 +1132,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>190.3453970742848</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>195.6855257497939</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>58.42001945340195</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1373,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1424,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1461,16 +1463,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>69.34212177059955</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -1506,13 +1508,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,55 +1618,55 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="S14" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T14" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G14" t="n">
+      <c r="V14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.809496073036132</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,31 +1685,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>88.12692860372137</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1740,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -1804,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>132.876626399942</v>
       </c>
       <c r="I17" t="n">
-        <v>90.38893773807641</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1923,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>168.0500184703206</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2020,49 +2022,49 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>21.18375537072436</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>5.669131146785232</v>
+        <v>43.79331538974423</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2281,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2318,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2327,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -2381,10 +2383,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2442,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>4.917944266724136</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>88.12692860372125</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2485,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2552,26 +2554,26 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
@@ -2600,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>55.57566235103577</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,22 +2642,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>37.83939432415846</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,22 +2684,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2795,70 +2797,70 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.809496073036188</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>21.18375537072436</v>
-      </c>
-      <c r="S29" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T29" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U29" t="n">
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2871,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2916,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>170.7632668135831</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>65.50045431635739</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3035,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3083,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>41.03505793709383</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3120,10 +3122,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,61 +3280,61 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R35" t="n">
-        <v>9.73723617201896</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>85.31372784089211</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>149.5551324640573</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3427,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3512,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3524,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,28 +3547,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>72.47049842454879</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>241.0142888776591</v>
@@ -3579,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>139.1442542198483</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3597,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,13 +3635,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>160.0595438523577</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3794,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3819,13 +3821,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>113.5189037666201</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3834,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3882,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>123.8814522403791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4037,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>52.29925768854296</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4107,19 +4109,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>115.9464870703654</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4174,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.9970564337892</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="C2" t="n">
-        <v>159.9970564337892</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="D2" t="n">
-        <v>159.9970564337892</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="E2" t="n">
-        <v>112.3871215328157</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="F2" t="n">
-        <v>58.33406192680583</v>
+        <v>31.80830218922787</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>57.25840604064623</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>110.2358097604965</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="M2" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>110.2358097604965</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>163.2132134803467</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="S2" t="n">
-        <v>159.9970564337892</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="T2" t="n">
-        <v>159.9970564337892</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="U2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="V2" t="n">
-        <v>159.9970564337892</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="W2" t="n">
-        <v>159.9970564337892</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="X2" t="n">
-        <v>159.9970564337892</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="Y2" t="n">
-        <v>159.9970564337892</v>
+        <v>41.79932185354235</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.89093722176946</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="C3" t="n">
-        <v>51.89093722176946</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="D3" t="n">
-        <v>51.89093722176946</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="E3" t="n">
-        <v>51.89093722176946</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="F3" t="n">
-        <v>51.89093722176946</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="G3" t="n">
-        <v>51.89093722176946</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="H3" t="n">
-        <v>51.89093722176946</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
         <v>5.035134973581694</v>
@@ -4416,13 +4418,13 @@
         <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
+        <v>57.25840604064623</v>
+      </c>
+      <c r="N3" t="n">
+        <v>57.25840604064623</v>
+      </c>
+      <c r="O3" t="n">
         <v>108.0953086000985</v>
-      </c>
-      <c r="N3" t="n">
-        <v>161.0727123199487</v>
-      </c>
-      <c r="O3" t="n">
-        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
         <v>161.0727123199487</v>
@@ -4434,25 +4436,25 @@
         <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="U3" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="V3" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="W3" t="n">
-        <v>105.9439968277793</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="X3" t="n">
-        <v>105.9439968277793</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="Y3" t="n">
-        <v>105.9439968277793</v>
+        <v>59.08819457959154</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.33406192680583</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="C4" t="n">
-        <v>58.33406192680583</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="D4" t="n">
-        <v>58.33406192680583</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="E4" t="n">
-        <v>58.33406192680583</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="F4" t="n">
-        <v>58.33406192680583</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="G4" t="n">
-        <v>58.33406192680583</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="H4" t="n">
-        <v>58.33406192680583</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="I4" t="n">
-        <v>58.33406192680583</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4504,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.3871215328157</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="R4" t="n">
-        <v>58.33406192680583</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="S4" t="n">
-        <v>58.33406192680583</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="T4" t="n">
-        <v>58.33406192680583</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="U4" t="n">
-        <v>58.33406192680583</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="V4" t="n">
-        <v>58.33406192680583</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="W4" t="n">
-        <v>58.33406192680583</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="X4" t="n">
-        <v>58.33406192680583</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.33406192680583</v>
+        <v>27.95824356358591</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477.1596022224361</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C5" t="n">
-        <v>477.1596022224361</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="D5" t="n">
-        <v>477.1596022224361</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="E5" t="n">
-        <v>477.1596022224361</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="F5" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U5" t="n">
-        <v>720.6083788665362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V5" t="n">
-        <v>477.1596022224361</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W5" t="n">
-        <v>477.1596022224361</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X5" t="n">
-        <v>477.1596022224361</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862.8876260635219</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4653,16 +4655,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N6" t="n">
         <v>613.2059550252818</v>
       </c>
-      <c r="N6" t="n">
-        <v>851.8101010141643</v>
-      </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4674,22 +4676,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>780.0974294410144</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>780.0974294410144</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>544.9453212092717</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>544.9453212092717</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>544.9453212092717</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>337.1850224443177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>874.2758585542716</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>874.2758585542716</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>874.2758585542716</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>874.2758585542716</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>874.2758585542716</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>874.2758585542716</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>874.2758585542716</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>874.2758585542716</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>874.2758585542716</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>874.2758585542716</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>874.2758585542716</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>874.2758585542716</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>874.2758585542716</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>874.2758585542716</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>874.2758585542716</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>874.2758585542716</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>874.2758585542716</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4844,10 +4846,10 @@
         <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,19 +4889,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4911,22 +4913,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>463.038884200274</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>227.8867759685313</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W9" t="n">
-        <v>227.8867759685313</v>
+        <v>340.5017789081662</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4981,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5142,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>792.8450788204921</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>590.658484179258</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>362.4348659156472</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V12" t="n">
-        <v>362.4348659156472</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W12" t="n">
-        <v>362.4348659156472</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X12" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
         <v>136.0777814360265</v>
@@ -5221,28 +5223,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5302,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V14" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W14" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X14" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y14" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5364,10 +5366,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N15" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
         <v>712.019119383956</v>
@@ -5388,19 +5390,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
         <v>136.0777814360265</v>
@@ -5452,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>136.0777814360265</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C17" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D17" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E17" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F17" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G17" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="H17" t="n">
-        <v>122.6530896684844</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5546,19 +5548,19 @@
         <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V17" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W17" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X17" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y17" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,46 +5600,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>189.028636514577</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
         <v>19.28114311021272</v>
@@ -5710,13 +5712,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5734,16 @@
         <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>942.6594228129348</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>731.528039392485</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>582.8795121963512</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C21" t="n">
-        <v>582.8795121963512</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D21" t="n">
         <v>577.1531170985884</v>
@@ -5832,13 +5834,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
         <v>473.4149733950735</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y21" t="n">
-        <v>582.8795121963512</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>114.6452713866835</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V23" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W23" t="n">
-        <v>358.0940480307835</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X23" t="n">
-        <v>358.0940480307835</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y23" t="n">
-        <v>114.6452713866835</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="24">
@@ -6042,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>342.668582052591</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C24" t="n">
         <v>168.215552771464</v>
@@ -6069,49 +6071,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>959.0895350391977</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>785.6721904898666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>785.6721904898666</v>
+        <v>875.0400559109178</v>
       </c>
       <c r="U24" t="n">
-        <v>785.6721904898666</v>
+        <v>646.8164376473068</v>
       </c>
       <c r="V24" t="n">
-        <v>550.5200822581238</v>
+        <v>411.6643294155641</v>
       </c>
       <c r="W24" t="n">
-        <v>550.5200822581238</v>
+        <v>168.215552771464</v>
       </c>
       <c r="X24" t="n">
-        <v>342.668582052591</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y24" t="n">
-        <v>342.668582052591</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>82.32787816303323</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>82.32787816303323</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>82.32787816303323</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>547.1910343172051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>547.1910343172051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>547.1910343172051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,13 +6314,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V27" t="n">
-        <v>790.6398109613051</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W27" t="n">
-        <v>547.1910343172051</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X27" t="n">
-        <v>547.1910343172051</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y27" t="n">
-        <v>547.1910343172051</v>
+        <v>75.41817578802664</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>325.0531560887832</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="C30" t="n">
-        <v>325.0531560887832</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D30" t="n">
-        <v>325.0531560887832</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E30" t="n">
         <v>165.8157010833278</v>
@@ -6552,40 +6554,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>791.5690072140876</v>
       </c>
       <c r="U30" t="n">
-        <v>634.6640077999109</v>
+        <v>791.5690072140876</v>
       </c>
       <c r="V30" t="n">
-        <v>568.5019327328832</v>
+        <v>791.5690072140876</v>
       </c>
       <c r="W30" t="n">
-        <v>325.0531560887832</v>
+        <v>548.1202305699876</v>
       </c>
       <c r="X30" t="n">
-        <v>325.0531560887832</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="Y30" t="n">
-        <v>325.0531560887832</v>
+        <v>340.2687303644548</v>
       </c>
     </row>
     <row r="31">
@@ -6643,7 +6645,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
         <v>19.28114311021272</v>
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>223.6192102101089</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>223.6192102101089</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D32" t="n">
-        <v>223.6192102101089</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E32" t="n">
-        <v>223.6192102101089</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F32" t="n">
-        <v>223.6192102101089</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G32" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W32" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X32" t="n">
-        <v>223.6192102101089</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>223.6192102101089</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>445.8341334011449</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6783,13 +6785,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U33" t="n">
-        <v>487.2836868729568</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V33" t="n">
-        <v>487.2836868729568</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W33" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X33" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6889,13 +6891,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
         <v>19.28114311021272</v>
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>475.3318284112885</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C35" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D35" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E35" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F35" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G35" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>944.1299480494607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>944.1299480494607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>718.7806050553886</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U35" t="n">
-        <v>718.7806050553886</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V35" t="n">
-        <v>475.3318284112885</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W35" t="n">
-        <v>475.3318284112885</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X35" t="n">
-        <v>475.3318284112885</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y35" t="n">
-        <v>475.3318284112885</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>268.8182272585117</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C36" t="n">
-        <v>268.8182272585117</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D36" t="n">
-        <v>268.8182272585117</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E36" t="n">
-        <v>109.5807722530562</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="F36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7017,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>711.8218356957873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>711.8218356957873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>711.8218356957873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>476.6697274640446</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>476.6697274640446</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>268.8182272585117</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>268.8182272585117</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="37">
@@ -7069,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
         <v>19.28114311021272</v>
@@ -7129,16 +7131,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>319.0683498528888</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="C39" t="n">
-        <v>178.5185981156682</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7283,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>527.7939745926174</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>527.7939745926174</v>
       </c>
       <c r="V39" t="n">
-        <v>487.2836868729568</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="W39" t="n">
-        <v>487.2836868729568</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="X39" t="n">
-        <v>487.2836868729568</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="Y39" t="n">
-        <v>487.2836868729568</v>
+        <v>292.6418663608746</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
         <v>19.28114311021272</v>
@@ -7442,19 +7444,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>440.8221433693402</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
         <v>19.28114311021272</v>
@@ -7494,19 +7496,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>526.7184526376595</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W42" t="n">
-        <v>526.7184526376595</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X42" t="n">
-        <v>318.8669524321267</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="Y42" t="n">
-        <v>193.7341723913397</v>
+        <v>555.4877027295624</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>255.9366034337592</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C44" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>255.9366034337592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7673,25 +7675,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>499.3853800778592</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X44" t="n">
-        <v>499.3853800778592</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y44" t="n">
-        <v>255.9366034337592</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E45" t="n">
         <v>20.03527576299844</v>
@@ -7731,16 +7733,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7755,22 +7757,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U45" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V45" t="n">
-        <v>471.3355526126313</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W45" t="n">
-        <v>227.8867759685313</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X45" t="n">
-        <v>20.03527576299844</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>555.4877027295624</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T46" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U46" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V46" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316365</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>282.5834023809789</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,16 +8066,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>193.4844405477277</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>184.8542410932831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>193.9466510701538</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
         <v>193.4943030959713</v>
@@ -8301,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P6" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9012,13 +9014,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O15" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9246,22 +9248,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8407857361378</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9728,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>357.7767872515269</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,16 +9962,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10200,7 +10202,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133072</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,16 +10433,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11142,22 +11144,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11379,19 +11381,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23261,13 +23263,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23276,10 +23278,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23312,16 +23314,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23349,16 +23351,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>102.3410493332383</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23394,13 +23396,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23434,7 +23436,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>159.7350957343571</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23540,19 +23542,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>325.9427623970988</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>78.40625504614597</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23628,13 +23630,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,7 +23673,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23692,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>203.7477984443889</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23747,13 +23749,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>206.5981757158251</v>
       </c>
       <c r="I17" t="n">
-        <v>120.0869518323295</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23786,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23811,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>37.72296673315685</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23908,7 +23910,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I19" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J19" t="n">
         <v>93.35918011667277</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,16 +24013,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>141.7759344178535</v>
+        <v>103.6517501748945</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24096,7 +24098,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24114,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24169,16 +24171,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24206,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>270.8624047773015</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,7 +24217,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24224,7 +24226,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24251,7 +24253,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -24269,10 +24271,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24285,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24330,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>95.239889885919</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>112.0378000911004</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24373,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24409,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24440,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>344.4597780394191</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24488,19 +24490,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>110.9575212988316</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24528,22 +24530,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>119.8056861312425</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,22 +24572,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24616,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24683,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24698,10 +24700,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24759,13 +24761,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24804,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>29.40146188123848</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>167.3001328330679</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24883,10 +24885,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24923,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24971,16 +24973,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>125.4981257127735</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25008,10 +25010,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25041,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>64.7505686791048</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25154,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,22 +25198,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>140.1318817691307</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>22.7597532753017</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>59.75548455249177</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25251,7 +25253,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>22.12803863978056</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25290,16 +25292,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25315,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25369,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25400,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25412,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,28 +25435,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>150.6253511395826</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>145.2236497783945</v>
@@ -25467,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>33.5642447684674</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25485,13 +25487,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,13 +25523,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>40.10518484246393</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25564,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25682,16 +25684,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25707,13 +25709,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>59.18959522169568</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25722,7 +25724,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25755,10 +25757,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25770,10 +25772,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>81.80124353692527</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25831,13 +25833,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25877,10 +25879,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>105.1858963954562</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25913,7 +25915,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25925,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>114.2339259613244</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25995,19 +25997,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>116.8541000790599</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>37.52545250819722</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26062,7 +26064,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>86.16204325169439</v>
@@ -26074,7 +26076,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>357483.6257226522</v>
+        <v>357483.6257226521</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>357483.6257226521</v>
+        <v>357483.625722652</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>357483.6257226521</v>
+        <v>357483.6257226522</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>357483.6257226522</v>
+        <v>357483.6257226521</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>357483.625722652</v>
+        <v>357483.6257226522</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>357483.6257226522</v>
+        <v>357483.625722652</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>357483.6257226521</v>
+        <v>357483.6257226522</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>357483.6257226522</v>
+        <v>357483.6257226521</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>357483.6257226521</v>
+        <v>357483.6257226522</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
         <v>257549.0424235651</v>
@@ -26326,10 +26328,10 @@
         <v>257549.0424235651</v>
       </c>
       <c r="G2" t="n">
-        <v>257549.0424235651</v>
+        <v>257549.0424235652</v>
       </c>
       <c r="H2" t="n">
-        <v>257549.0424235651</v>
+        <v>257549.0424235652</v>
       </c>
       <c r="I2" t="n">
         <v>257549.0424235651</v>
@@ -26347,13 +26349,13 @@
         <v>257549.0424235651</v>
       </c>
       <c r="N2" t="n">
-        <v>257549.0424235652</v>
+        <v>257549.0424235651</v>
       </c>
       <c r="O2" t="n">
         <v>257549.0424235651</v>
       </c>
       <c r="P2" t="n">
-        <v>257549.0424235652</v>
+        <v>257549.0424235651</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26427,10 +26429,10 @@
         <v>33649.84678425771</v>
       </c>
       <c r="F4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="G4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="H4" t="n">
         <v>33649.84678425771</v>
@@ -26439,13 +26441,13 @@
         <v>33649.84678425771</v>
       </c>
       <c r="J4" t="n">
-        <v>33649.84678425771</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="K4" t="n">
         <v>33649.84678425771</v>
       </c>
       <c r="L4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="M4" t="n">
         <v>33649.84678425771</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>227421.7294804556</v>
+        <v>227421.7294804561</v>
       </c>
       <c r="C6" t="n">
         <v>214854.4062756729</v>
       </c>
       <c r="D6" t="n">
-        <v>275430.7284623411</v>
+        <v>275430.728462341</v>
       </c>
       <c r="E6" t="n">
         <v>209245.5268755457</v>
@@ -26543,19 +26545,19 @@
         <v>209245.5268755457</v>
       </c>
       <c r="J6" t="n">
-        <v>195244.2947352665</v>
+        <v>195244.2947352664</v>
       </c>
       <c r="K6" t="n">
         <v>160988.5739419131</v>
       </c>
       <c r="L6" t="n">
-        <v>209245.5268755457</v>
+        <v>209245.5268755458</v>
       </c>
       <c r="M6" t="n">
         <v>209245.5268755457</v>
       </c>
       <c r="N6" t="n">
-        <v>209245.5268755458</v>
+        <v>209245.5268755457</v>
       </c>
       <c r="O6" t="n">
         <v>209245.5268755457</v>
@@ -27385,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>334.7965345202981</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317617</v>
+        <v>396.9849362740401</v>
       </c>
       <c r="G2" t="n">
-        <v>361.7902085051853</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,22 +27423,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>155.5075405762956</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>169.5833205541816</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>197.8331238978867</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>274.2397294601852</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27476,7 +27478,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>43.00938862570919</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,19 +27508,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
-        <v>172.4288530710251</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>198.1824541509698</v>
+        <v>205.3077389352137</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27558,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>39.84665110672302</v>
+        <v>92.18820311219361</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,16 +27578,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>60.00013368622585</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>123.7808623672197</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>170.5040690270225</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27597,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>233.0104693266412</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27625,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>336.5320379404362</v>
       </c>
       <c r="G5" t="n">
-        <v>214.9666412263055</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,22 +27660,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27692,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,13 +27748,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>118.2024340385391</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27795,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>71.32518834398857</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27828,7 +27830,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,31 +27852,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>216.5306486674267</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27947,13 +27949,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27983,16 +27985,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>30.25585633118095</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>193.2749637075177</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28035,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28065,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>178.1229943321122</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="M2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="P2" t="n">
-        <v>51.35040662570938</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,16 +34786,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>51.35040662570935</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>53.51252900994975</v>
@@ -34945,7 +34947,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35021,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P6" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,13 +35181,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35419,7 +35421,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35732,13 +35734,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35893,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35966,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>217.7067518141195</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36446,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>226.4350751681936</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,16 +36682,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36920,7 +36922,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>99.8112771299739</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,16 +37153,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37312,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37862,22 +37864,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38099,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
